--- a/Spring 2020/IntrotoAmericanPolitics_CensusData.xlsx
+++ b/Spring 2020/IntrotoAmericanPolitics_CensusData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="114">
   <si>
     <t>Geo_FIPS</t>
   </si>
@@ -349,15 +349,6 @@
   </si>
   <si>
     <t>2017_TotalPop_Hispanic/Latino</t>
-  </si>
-  <si>
-    <t>2017_Under18_Poverty</t>
-  </si>
-  <si>
-    <t>2017_18-64_Poverty</t>
-  </si>
-  <si>
-    <t>2017_65+_Poverty</t>
   </si>
   <si>
     <t>2017_White_poverty</t>
@@ -1210,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM63"/>
+  <dimension ref="A1:AJ40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,19 +1230,16 @@
     <col min="20" max="20" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="25.140625" customWidth="1"/>
-    <col min="30" max="30" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="27.140625" customWidth="1"/>
-    <col min="36" max="36" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="25.140625" customWidth="1"/>
+    <col min="27" max="27" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="27.140625" customWidth="1"/>
+    <col min="33" max="33" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1331,46 +1319,37 @@
         <v>113</v>
       </c>
       <c r="AA1" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="AB1" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="AC1" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="AD1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AE1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AF1" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AG1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="AH1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="AI1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AJ1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>36001</v>
       </c>
@@ -1438,58 +1417,43 @@
         <v>4.96</v>
       </c>
       <c r="W2">
-        <v>6038</v>
+        <v>17313</v>
       </c>
       <c r="X2">
-        <v>23633</v>
-      </c>
-      <c r="Y2">
-        <v>3130</v>
-      </c>
-      <c r="Z2">
-        <v>19268</v>
+        <v>9332</v>
       </c>
       <c r="AA2">
-        <v>9673</v>
+        <v>66204</v>
       </c>
       <c r="AB2">
-        <v>3011</v>
+        <v>73561</v>
       </c>
       <c r="AC2">
-        <v>4638</v>
+        <v>32711</v>
       </c>
       <c r="AD2">
-        <v>66204</v>
+        <v>77814</v>
       </c>
       <c r="AE2">
-        <v>73561</v>
+        <v>41031</v>
       </c>
       <c r="AF2">
-        <v>32711</v>
+        <v>60803</v>
       </c>
       <c r="AG2">
-        <v>77814</v>
+        <v>65166</v>
       </c>
       <c r="AH2">
-        <v>41031</v>
+        <v>31128</v>
       </c>
       <c r="AI2">
-        <v>60803</v>
+        <v>66195</v>
       </c>
       <c r="AJ2">
-        <v>65166</v>
-      </c>
-      <c r="AK2">
-        <v>31128</v>
-      </c>
-      <c r="AL2">
-        <v>66195</v>
-      </c>
-      <c r="AM2">
         <v>58026</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>36005</v>
       </c>
@@ -1557,58 +1521,49 @@
         <v>53.63</v>
       </c>
       <c r="W3">
-        <v>141034</v>
+        <v>69659</v>
       </c>
       <c r="X3">
-        <v>220361</v>
+        <v>130290</v>
       </c>
       <c r="Y3">
-        <v>40989</v>
+        <v>14238</v>
       </c>
       <c r="Z3">
-        <v>6730</v>
+        <v>258387</v>
       </c>
       <c r="AA3">
-        <v>30</v>
+        <v>37397</v>
       </c>
       <c r="AB3">
-        <v>87</v>
+        <v>48020</v>
       </c>
       <c r="AC3">
-        <v>143</v>
+        <v>37491</v>
       </c>
       <c r="AD3">
-        <v>37397</v>
+        <v>48016</v>
       </c>
       <c r="AE3">
-        <v>48020</v>
+        <v>32911</v>
       </c>
       <c r="AF3">
-        <v>37491</v>
+        <v>36695</v>
       </c>
       <c r="AG3">
-        <v>48016</v>
+        <v>43543</v>
       </c>
       <c r="AH3">
-        <v>32911</v>
+        <v>38961</v>
       </c>
       <c r="AI3">
-        <v>36695</v>
+        <v>57927</v>
       </c>
       <c r="AJ3">
-        <v>43543</v>
-      </c>
-      <c r="AK3">
-        <v>38961</v>
-      </c>
-      <c r="AL3">
-        <v>57927</v>
-      </c>
-      <c r="AM3">
         <v>30496</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>36007</v>
       </c>
@@ -1676,58 +1631,40 @@
         <v>3.45</v>
       </c>
       <c r="W4">
-        <v>7496</v>
-      </c>
-      <c r="X4">
-        <v>22113</v>
-      </c>
-      <c r="Y4">
-        <v>3209</v>
-      </c>
-      <c r="Z4">
-        <v>66539</v>
+        <v>24225</v>
       </c>
       <c r="AA4">
-        <v>125975</v>
+        <v>47758</v>
       </c>
       <c r="AB4">
-        <v>12818</v>
+        <v>50829</v>
       </c>
       <c r="AC4">
-        <v>276827</v>
+        <v>22410</v>
       </c>
       <c r="AD4">
-        <v>47758</v>
+        <v>35279</v>
       </c>
       <c r="AE4">
-        <v>50829</v>
+        <v>23346</v>
       </c>
       <c r="AF4">
-        <v>22410</v>
+        <v>50108</v>
       </c>
       <c r="AG4">
-        <v>35279</v>
+        <v>51218</v>
       </c>
       <c r="AH4">
-        <v>23346</v>
+        <v>24935</v>
       </c>
       <c r="AI4">
-        <v>50108</v>
+        <v>49245</v>
       </c>
       <c r="AJ4">
-        <v>51218</v>
-      </c>
-      <c r="AK4">
-        <v>24935</v>
-      </c>
-      <c r="AL4">
-        <v>49245</v>
-      </c>
-      <c r="AM4">
         <v>35252</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>36009</v>
       </c>
@@ -1783,52 +1720,34 @@
         <v>0.78</v>
       </c>
       <c r="W5">
-        <v>3750</v>
-      </c>
-      <c r="X5">
-        <v>6778</v>
-      </c>
-      <c r="Y5">
-        <v>1229</v>
-      </c>
-      <c r="Z5">
-        <v>21802</v>
+        <v>9621</v>
       </c>
       <c r="AA5">
-        <v>4451</v>
+        <v>48484</v>
       </c>
       <c r="AB5">
-        <v>2476</v>
-      </c>
-      <c r="AC5">
-        <v>2726</v>
+        <v>49725</v>
       </c>
       <c r="AD5">
-        <v>48484</v>
+        <v>2499</v>
       </c>
       <c r="AE5">
-        <v>49725</v>
+        <v>27225</v>
+      </c>
+      <c r="AF5">
+        <v>46847</v>
       </c>
       <c r="AG5">
-        <v>2499</v>
+        <v>47467</v>
       </c>
       <c r="AH5">
-        <v>27225</v>
+        <v>26068</v>
       </c>
       <c r="AI5">
-        <v>46847</v>
-      </c>
-      <c r="AJ5">
-        <v>47467</v>
-      </c>
-      <c r="AK5">
-        <v>26068</v>
-      </c>
-      <c r="AL5">
         <v>64244</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>36011</v>
       </c>
@@ -1884,52 +1803,34 @@
         <v>2.14</v>
       </c>
       <c r="W6">
-        <v>2681</v>
-      </c>
-      <c r="X6">
-        <v>4830</v>
-      </c>
-      <c r="Y6">
-        <v>778</v>
-      </c>
-      <c r="Z6">
-        <v>11003</v>
+        <v>7798</v>
       </c>
       <c r="AA6">
-        <v>528</v>
+        <v>56599</v>
       </c>
       <c r="AB6">
-        <v>97</v>
+        <v>57044</v>
       </c>
       <c r="AC6">
-        <v>356</v>
+        <v>35488</v>
       </c>
       <c r="AD6">
-        <v>56599</v>
+        <v>98682</v>
       </c>
       <c r="AE6">
-        <v>57044</v>
+        <v>26276</v>
       </c>
       <c r="AF6">
-        <v>35488</v>
+        <v>55362</v>
       </c>
       <c r="AG6">
-        <v>98682</v>
-      </c>
-      <c r="AH6">
-        <v>26276</v>
+        <v>55250</v>
       </c>
       <c r="AI6">
-        <v>55362</v>
-      </c>
-      <c r="AJ6">
-        <v>55250</v>
-      </c>
-      <c r="AL6">
         <v>79904</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>36013</v>
       </c>
@@ -1991,49 +1892,31 @@
         <v>6.17</v>
       </c>
       <c r="W7">
-        <v>7288</v>
-      </c>
-      <c r="X7">
-        <v>12201</v>
-      </c>
-      <c r="Y7">
-        <v>2377</v>
-      </c>
-      <c r="Z7">
-        <v>7534</v>
+        <v>18853</v>
       </c>
       <c r="AA7">
-        <v>384</v>
+        <v>46079</v>
       </c>
       <c r="AB7">
-        <v>19</v>
-      </c>
-      <c r="AC7">
-        <v>346</v>
-      </c>
-      <c r="AD7">
-        <v>46079</v>
+        <v>46708</v>
       </c>
       <c r="AE7">
-        <v>46708</v>
+        <v>19730</v>
+      </c>
+      <c r="AF7">
+        <v>45568</v>
+      </c>
+      <c r="AG7">
+        <v>46064</v>
       </c>
       <c r="AH7">
-        <v>19730</v>
-      </c>
-      <c r="AI7">
-        <v>45568</v>
+        <v>27090</v>
       </c>
       <c r="AJ7">
-        <v>46064</v>
-      </c>
-      <c r="AK7">
-        <v>27090</v>
-      </c>
-      <c r="AM7">
         <v>20824</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>36015</v>
       </c>
@@ -2089,49 +1972,31 @@
         <v>0.95</v>
       </c>
       <c r="W8">
-        <v>4328</v>
-      </c>
-      <c r="X8">
-        <v>6951</v>
-      </c>
-      <c r="Y8">
-        <v>767</v>
-      </c>
-      <c r="Z8">
-        <v>19740</v>
+        <v>9486</v>
       </c>
       <c r="AA8">
-        <v>1121</v>
+        <v>51194</v>
       </c>
       <c r="AB8">
-        <v>145</v>
+        <v>51961</v>
       </c>
       <c r="AC8">
-        <v>3914</v>
+        <v>24753</v>
       </c>
       <c r="AD8">
-        <v>51194</v>
-      </c>
-      <c r="AE8">
-        <v>51961</v>
+        <v>158427</v>
       </c>
       <c r="AF8">
-        <v>24753</v>
+        <v>53680</v>
       </c>
       <c r="AG8">
-        <v>158427</v>
-      </c>
-      <c r="AI8">
-        <v>53680</v>
-      </c>
-      <c r="AJ8">
         <v>54814</v>
       </c>
-      <c r="AK8">
+      <c r="AH8">
         <v>29695</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>36019</v>
       </c>
@@ -2193,46 +2058,28 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="W9">
-        <v>2120</v>
-      </c>
-      <c r="X9">
-        <v>6256</v>
-      </c>
-      <c r="Y9">
-        <v>1064</v>
-      </c>
-      <c r="Z9">
-        <v>9950</v>
+        <v>8591</v>
       </c>
       <c r="AA9">
-        <v>1435</v>
+        <v>58234</v>
       </c>
       <c r="AB9">
-        <v>54</v>
+        <v>58248</v>
       </c>
       <c r="AC9">
-        <v>590</v>
-      </c>
-      <c r="AD9">
-        <v>58234</v>
+        <v>61687</v>
       </c>
       <c r="AE9">
-        <v>58248</v>
+        <v>55818</v>
       </c>
       <c r="AF9">
-        <v>61687</v>
-      </c>
-      <c r="AH9">
-        <v>55818</v>
-      </c>
-      <c r="AI9">
         <v>49125</v>
       </c>
-      <c r="AJ9">
+      <c r="AG9">
         <v>50780</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>36027</v>
       </c>
@@ -2300,58 +2147,46 @@
         <v>10.57</v>
       </c>
       <c r="W10">
-        <v>8524</v>
+        <v>19157</v>
       </c>
       <c r="X10">
-        <v>16839</v>
-      </c>
-      <c r="Y10">
-        <v>3626</v>
+        <v>4318</v>
       </c>
       <c r="Z10">
-        <v>6364</v>
+        <v>6078</v>
       </c>
       <c r="AA10">
-        <v>149</v>
+        <v>77915</v>
       </c>
       <c r="AB10">
-        <v>16</v>
+        <v>82821</v>
       </c>
       <c r="AC10">
-        <v>268</v>
+        <v>48339</v>
       </c>
       <c r="AD10">
-        <v>77915</v>
+        <v>120627</v>
       </c>
       <c r="AE10">
-        <v>82821</v>
+        <v>74764</v>
       </c>
       <c r="AF10">
-        <v>48339</v>
+        <v>78434</v>
       </c>
       <c r="AG10">
-        <v>120627</v>
+        <v>80471</v>
       </c>
       <c r="AH10">
-        <v>74764</v>
+        <v>50534</v>
       </c>
       <c r="AI10">
-        <v>78434</v>
+        <v>103229</v>
       </c>
       <c r="AJ10">
-        <v>80471</v>
-      </c>
-      <c r="AK10">
-        <v>50534</v>
-      </c>
-      <c r="AL10">
-        <v>103229</v>
-      </c>
-      <c r="AM10">
         <v>62782</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>36029</v>
       </c>
@@ -2419,58 +2254,49 @@
         <v>4.57</v>
       </c>
       <c r="W11">
-        <v>40896</v>
+        <v>67024</v>
       </c>
       <c r="X11">
-        <v>76780</v>
+        <v>35668</v>
       </c>
       <c r="Y11">
-        <v>13870</v>
+        <v>10216</v>
       </c>
       <c r="Z11">
-        <v>10374</v>
+        <v>17410</v>
       </c>
       <c r="AA11">
-        <v>254</v>
+        <v>55604</v>
       </c>
       <c r="AB11">
-        <v>322</v>
+        <v>62082</v>
       </c>
       <c r="AC11">
-        <v>307</v>
+        <v>30285</v>
       </c>
       <c r="AD11">
-        <v>55604</v>
+        <v>46757</v>
       </c>
       <c r="AE11">
-        <v>62082</v>
+        <v>30337</v>
       </c>
       <c r="AF11">
-        <v>30285</v>
+        <v>52748</v>
       </c>
       <c r="AG11">
-        <v>46757</v>
+        <v>58048</v>
       </c>
       <c r="AH11">
-        <v>30337</v>
+        <v>26158</v>
       </c>
       <c r="AI11">
-        <v>52748</v>
+        <v>52508</v>
       </c>
       <c r="AJ11">
-        <v>58048</v>
-      </c>
-      <c r="AK11">
-        <v>26158</v>
-      </c>
-      <c r="AL11">
-        <v>52508</v>
-      </c>
-      <c r="AM11">
         <v>25829</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>36045</v>
       </c>
@@ -2538,52 +2364,34 @@
         <v>5.34</v>
       </c>
       <c r="W12">
-        <v>6116</v>
-      </c>
-      <c r="X12">
-        <v>9675</v>
-      </c>
-      <c r="Y12">
-        <v>951</v>
-      </c>
-      <c r="Z12">
-        <v>5479</v>
+        <v>14573</v>
       </c>
       <c r="AA12">
-        <v>468</v>
+        <v>47101</v>
       </c>
       <c r="AB12">
-        <v>158</v>
+        <v>48680</v>
       </c>
       <c r="AC12">
-        <v>548</v>
-      </c>
-      <c r="AD12">
-        <v>47101</v>
+        <v>45338</v>
       </c>
       <c r="AE12">
-        <v>48680</v>
+        <v>40900</v>
       </c>
       <c r="AF12">
-        <v>45338</v>
+        <v>49076</v>
+      </c>
+      <c r="AG12">
+        <v>50228</v>
       </c>
       <c r="AH12">
-        <v>40900</v>
-      </c>
-      <c r="AI12">
-        <v>49076</v>
+        <v>48841</v>
       </c>
       <c r="AJ12">
-        <v>50228</v>
-      </c>
-      <c r="AK12">
-        <v>48841</v>
-      </c>
-      <c r="AM12">
         <v>39356</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>36047</v>
       </c>
@@ -2651,58 +2459,49 @@
         <v>19.91</v>
       </c>
       <c r="W13">
-        <v>158114</v>
+        <v>196853</v>
       </c>
       <c r="X13">
-        <v>288271</v>
+        <v>175931</v>
       </c>
       <c r="Y13">
-        <v>73418</v>
+        <v>63725</v>
       </c>
       <c r="Z13">
-        <v>6085</v>
+        <v>131222</v>
       </c>
       <c r="AA13">
-        <v>131</v>
+        <v>56942</v>
       </c>
       <c r="AB13">
-        <v>9</v>
+        <v>75185</v>
       </c>
       <c r="AC13">
-        <v>281</v>
+        <v>45355</v>
       </c>
       <c r="AD13">
-        <v>56942</v>
+        <v>59425</v>
       </c>
       <c r="AE13">
-        <v>75185</v>
+        <v>40165</v>
       </c>
       <c r="AF13">
-        <v>45355</v>
+        <v>47483</v>
       </c>
       <c r="AG13">
-        <v>59425</v>
+        <v>53004</v>
       </c>
       <c r="AH13">
-        <v>40165</v>
+        <v>45200</v>
       </c>
       <c r="AI13">
-        <v>47483</v>
+        <v>47455</v>
       </c>
       <c r="AJ13">
-        <v>53004</v>
-      </c>
-      <c r="AK13">
-        <v>45200</v>
-      </c>
-      <c r="AL13">
-        <v>47455</v>
-      </c>
-      <c r="AM13">
         <v>39509</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>36051</v>
       </c>
@@ -2758,43 +2557,25 @@
         <v>1.08</v>
       </c>
       <c r="W14">
-        <v>1460</v>
-      </c>
-      <c r="X14">
-        <v>4402</v>
-      </c>
-      <c r="Y14">
-        <v>698</v>
-      </c>
-      <c r="Z14">
-        <v>6727</v>
+        <v>5367</v>
       </c>
       <c r="AA14">
-        <v>146</v>
+        <v>55931</v>
       </c>
       <c r="AB14">
-        <v>52</v>
-      </c>
-      <c r="AC14">
-        <v>347</v>
+        <v>56784</v>
       </c>
       <c r="AD14">
-        <v>55931</v>
-      </c>
-      <c r="AE14">
-        <v>56784</v>
+        <v>87733</v>
+      </c>
+      <c r="AF14">
+        <v>57057</v>
       </c>
       <c r="AG14">
-        <v>87733</v>
-      </c>
-      <c r="AI14">
-        <v>57057</v>
-      </c>
-      <c r="AJ14">
         <v>57330</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>36053</v>
       </c>
@@ -2850,46 +2631,28 @@
         <v>0.65</v>
       </c>
       <c r="W15">
-        <v>1500</v>
-      </c>
-      <c r="X15">
-        <v>3879</v>
-      </c>
-      <c r="Y15">
-        <v>953</v>
-      </c>
-      <c r="Z15">
-        <v>17191</v>
+        <v>6004</v>
       </c>
       <c r="AA15">
-        <v>4433</v>
+        <v>57069</v>
       </c>
       <c r="AB15">
-        <v>739</v>
-      </c>
-      <c r="AC15">
-        <v>5052</v>
+        <v>55997</v>
       </c>
       <c r="AD15">
-        <v>57069</v>
+        <v>88900</v>
       </c>
       <c r="AE15">
-        <v>55997</v>
+        <v>158102</v>
+      </c>
+      <c r="AF15">
+        <v>59723</v>
       </c>
       <c r="AG15">
-        <v>88900</v>
-      </c>
-      <c r="AH15">
-        <v>158102</v>
-      </c>
-      <c r="AI15">
-        <v>59723</v>
-      </c>
-      <c r="AJ15">
         <v>59944</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>36055</v>
       </c>
@@ -2957,58 +2720,49 @@
         <v>7.29</v>
       </c>
       <c r="W16">
-        <v>35746</v>
+        <v>51825</v>
       </c>
       <c r="X16">
-        <v>61639</v>
+        <v>40054</v>
       </c>
       <c r="Y16">
-        <v>9292</v>
+        <v>3426</v>
       </c>
       <c r="Z16">
-        <v>65910</v>
+        <v>20785</v>
       </c>
       <c r="AA16">
-        <v>40271</v>
+        <v>57561</v>
       </c>
       <c r="AB16">
-        <v>9933</v>
+        <v>65031</v>
       </c>
       <c r="AC16">
-        <v>16753</v>
+        <v>29636</v>
       </c>
       <c r="AD16">
-        <v>57561</v>
+        <v>66957</v>
       </c>
       <c r="AE16">
-        <v>65031</v>
+        <v>32018</v>
       </c>
       <c r="AF16">
-        <v>29636</v>
+        <v>55809</v>
       </c>
       <c r="AG16">
-        <v>66957</v>
+        <v>61694</v>
       </c>
       <c r="AH16">
-        <v>32018</v>
+        <v>29962</v>
       </c>
       <c r="AI16">
-        <v>55809</v>
+        <v>51193</v>
       </c>
       <c r="AJ16">
-        <v>61694</v>
-      </c>
-      <c r="AK16">
-        <v>29962</v>
-      </c>
-      <c r="AL16">
-        <v>51193</v>
-      </c>
-      <c r="AM16">
         <v>34287</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>36059</v>
       </c>
@@ -3076,58 +2830,49 @@
         <v>14.66</v>
       </c>
       <c r="W17">
-        <v>21479</v>
+        <v>42936</v>
       </c>
       <c r="X17">
-        <v>46820</v>
+        <v>14021</v>
       </c>
       <c r="Y17">
-        <v>12400</v>
+        <v>5603</v>
       </c>
       <c r="Z17">
-        <v>2861</v>
+        <v>23774</v>
       </c>
       <c r="AA17">
-        <v>86</v>
+        <v>108133</v>
       </c>
       <c r="AB17">
-        <v>36</v>
+        <v>114508</v>
       </c>
       <c r="AC17">
-        <v>158</v>
+        <v>82494</v>
       </c>
       <c r="AD17">
-        <v>108133</v>
+        <v>130804</v>
       </c>
       <c r="AE17">
-        <v>114508</v>
+        <v>85764</v>
       </c>
       <c r="AF17">
-        <v>82494</v>
+        <v>102648</v>
       </c>
       <c r="AG17">
-        <v>130804</v>
+        <v>107567</v>
       </c>
       <c r="AH17">
-        <v>85764</v>
+        <v>86130</v>
       </c>
       <c r="AI17">
-        <v>102648</v>
+        <v>125029</v>
       </c>
       <c r="AJ17">
-        <v>107567</v>
-      </c>
-      <c r="AK17">
-        <v>86130</v>
-      </c>
-      <c r="AL17">
-        <v>125029</v>
-      </c>
-      <c r="AM17">
         <v>70532</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>36061</v>
       </c>
@@ -3195,58 +2940,49 @@
         <v>25.56</v>
       </c>
       <c r="W18">
-        <v>54264</v>
+        <v>84852</v>
       </c>
       <c r="X18">
-        <v>161998</v>
+        <v>68686</v>
       </c>
       <c r="Y18">
-        <v>46220</v>
+        <v>38897</v>
       </c>
       <c r="Z18">
-        <v>7585</v>
+        <v>106590</v>
       </c>
       <c r="AA18">
-        <v>279</v>
+        <v>85071</v>
       </c>
       <c r="AB18">
-        <v>5</v>
+        <v>114659</v>
       </c>
       <c r="AC18">
-        <v>150</v>
+        <v>37747</v>
       </c>
       <c r="AD18">
-        <v>85071</v>
+        <v>76766</v>
       </c>
       <c r="AE18">
-        <v>114659</v>
+        <v>38841</v>
       </c>
       <c r="AF18">
-        <v>37747</v>
+        <v>71921</v>
       </c>
       <c r="AG18">
-        <v>76766</v>
+        <v>96136</v>
       </c>
       <c r="AH18">
-        <v>38841</v>
+        <v>35832</v>
       </c>
       <c r="AI18">
-        <v>71921</v>
+        <v>71907</v>
       </c>
       <c r="AJ18">
-        <v>96136</v>
-      </c>
-      <c r="AK18">
-        <v>35832</v>
-      </c>
-      <c r="AL18">
-        <v>71907</v>
-      </c>
-      <c r="AM18">
         <v>36172</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>36063</v>
       </c>
@@ -3302,58 +3038,43 @@
         <v>0.99</v>
       </c>
       <c r="W19">
-        <v>6484</v>
+        <v>17599</v>
       </c>
       <c r="X19">
-        <v>15695</v>
-      </c>
-      <c r="Y19">
-        <v>2965</v>
-      </c>
-      <c r="Z19">
-        <v>7788</v>
+        <v>5454</v>
       </c>
       <c r="AA19">
-        <v>236</v>
+        <v>54743</v>
       </c>
       <c r="AB19">
-        <v>12</v>
+        <v>58266</v>
       </c>
       <c r="AC19">
-        <v>441</v>
+        <v>26643</v>
       </c>
       <c r="AD19">
-        <v>54743</v>
+        <v>25813</v>
       </c>
       <c r="AE19">
-        <v>58266</v>
+        <v>32298</v>
       </c>
       <c r="AF19">
-        <v>26643</v>
+        <v>49565</v>
       </c>
       <c r="AG19">
-        <v>25813</v>
+        <v>52543</v>
       </c>
       <c r="AH19">
-        <v>32298</v>
+        <v>26956</v>
       </c>
       <c r="AI19">
-        <v>49565</v>
+        <v>28569</v>
       </c>
       <c r="AJ19">
-        <v>52543</v>
-      </c>
-      <c r="AK19">
-        <v>26956</v>
-      </c>
-      <c r="AL19">
-        <v>28569</v>
-      </c>
-      <c r="AM19">
         <v>61128</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>36065</v>
       </c>
@@ -3421,58 +3142,40 @@
         <v>4.63</v>
       </c>
       <c r="W20">
-        <v>12321</v>
-      </c>
-      <c r="X20">
-        <v>19929</v>
-      </c>
-      <c r="Y20">
-        <v>2992</v>
-      </c>
-      <c r="Z20">
-        <v>5854</v>
+        <v>22857</v>
       </c>
       <c r="AA20">
-        <v>772</v>
+        <v>53902</v>
       </c>
       <c r="AB20">
-        <v>76</v>
+        <v>56335</v>
       </c>
       <c r="AC20">
-        <v>371</v>
+        <v>32192</v>
       </c>
       <c r="AD20">
-        <v>53902</v>
+        <v>28489</v>
       </c>
       <c r="AE20">
-        <v>56335</v>
+        <v>37690</v>
       </c>
       <c r="AF20">
-        <v>32192</v>
+        <v>53278</v>
       </c>
       <c r="AG20">
-        <v>28489</v>
+        <v>55363</v>
       </c>
       <c r="AH20">
-        <v>37690</v>
+        <v>22477</v>
       </c>
       <c r="AI20">
-        <v>53278</v>
+        <v>35422</v>
       </c>
       <c r="AJ20">
-        <v>55363</v>
-      </c>
-      <c r="AK20">
-        <v>22477</v>
-      </c>
-      <c r="AL20">
-        <v>35422</v>
-      </c>
-      <c r="AM20">
         <v>29826</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>36067</v>
       </c>
@@ -3540,58 +3243,49 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="W21">
-        <v>20095</v>
+        <v>34128</v>
       </c>
       <c r="X21">
-        <v>36408</v>
+        <v>18830</v>
       </c>
       <c r="Y21">
-        <v>5317</v>
+        <v>3851</v>
       </c>
       <c r="Z21">
-        <v>4733</v>
+        <v>8299</v>
       </c>
       <c r="AA21">
-        <v>503</v>
+        <v>57652</v>
       </c>
       <c r="AB21">
-        <v>32</v>
+        <v>64336</v>
       </c>
       <c r="AC21">
-        <v>191</v>
+        <v>30446</v>
       </c>
       <c r="AD21">
-        <v>57652</v>
+        <v>40540</v>
       </c>
       <c r="AE21">
-        <v>64336</v>
+        <v>30965</v>
       </c>
       <c r="AF21">
-        <v>30446</v>
+        <v>56816</v>
       </c>
       <c r="AG21">
-        <v>40540</v>
+        <v>60321</v>
       </c>
       <c r="AH21">
-        <v>30965</v>
+        <v>31503</v>
       </c>
       <c r="AI21">
-        <v>56816</v>
+        <v>57780</v>
       </c>
       <c r="AJ21">
-        <v>60321</v>
-      </c>
-      <c r="AK21">
-        <v>31503</v>
-      </c>
-      <c r="AL21">
-        <v>57780</v>
-      </c>
-      <c r="AM21">
         <v>23222</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>36069</v>
       </c>
@@ -3647,49 +3341,31 @@
         <v>1.23</v>
       </c>
       <c r="W22">
-        <v>3072</v>
-      </c>
-      <c r="X22">
-        <v>5522</v>
-      </c>
-      <c r="Y22">
-        <v>1244</v>
-      </c>
-      <c r="Z22">
-        <v>413</v>
+        <v>8174</v>
       </c>
       <c r="AA22">
-        <v>11</v>
+        <v>66004</v>
       </c>
       <c r="AB22">
-        <v>1</v>
-      </c>
-      <c r="AC22">
-        <v>16</v>
-      </c>
-      <c r="AD22">
-        <v>66004</v>
+        <v>68189</v>
       </c>
       <c r="AE22">
-        <v>68189</v>
+        <v>43153</v>
+      </c>
+      <c r="AF22">
+        <v>60355</v>
+      </c>
+      <c r="AG22">
+        <v>61596</v>
       </c>
       <c r="AH22">
-        <v>43153</v>
-      </c>
-      <c r="AI22">
-        <v>60355</v>
+        <v>25030</v>
       </c>
       <c r="AJ22">
-        <v>61596</v>
-      </c>
-      <c r="AK22">
-        <v>25030</v>
-      </c>
-      <c r="AM22">
         <v>41664</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>36071</v>
       </c>
@@ -3757,58 +3433,46 @@
         <v>18.100000000000001</v>
       </c>
       <c r="W23">
-        <v>14392</v>
+        <v>24546</v>
       </c>
       <c r="X23">
-        <v>20412</v>
-      </c>
-      <c r="Y23">
-        <v>2750</v>
+        <v>5771</v>
       </c>
       <c r="Z23">
-        <v>8713</v>
+        <v>10601</v>
       </c>
       <c r="AA23">
-        <v>242</v>
+        <v>79311</v>
       </c>
       <c r="AB23">
-        <v>29</v>
+        <v>83452</v>
       </c>
       <c r="AC23">
-        <v>285</v>
+        <v>70313</v>
       </c>
       <c r="AD23">
-        <v>79311</v>
+        <v>76826</v>
       </c>
       <c r="AE23">
-        <v>83452</v>
+        <v>76341</v>
       </c>
       <c r="AF23">
-        <v>70313</v>
+        <v>74240</v>
       </c>
       <c r="AG23">
-        <v>76826</v>
+        <v>76279</v>
       </c>
       <c r="AH23">
-        <v>76341</v>
+        <v>58745</v>
       </c>
       <c r="AI23">
-        <v>74240</v>
+        <v>111120</v>
       </c>
       <c r="AJ23">
-        <v>76279</v>
-      </c>
-      <c r="AK23">
-        <v>58745</v>
-      </c>
-      <c r="AL23">
-        <v>111120</v>
-      </c>
-      <c r="AM23">
         <v>61930</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>36075</v>
       </c>
@@ -3870,43 +3534,25 @@
         <v>0.66</v>
       </c>
       <c r="W24">
-        <v>6308</v>
-      </c>
-      <c r="X24">
-        <v>10447</v>
-      </c>
-      <c r="Y24">
-        <v>2371</v>
-      </c>
-      <c r="Z24">
-        <v>13452</v>
+        <v>18201</v>
       </c>
       <c r="AA24">
-        <v>904</v>
+        <v>53406</v>
       </c>
       <c r="AB24">
-        <v>312</v>
-      </c>
-      <c r="AC24">
-        <v>1537</v>
+        <v>53824</v>
       </c>
       <c r="AD24">
-        <v>53406</v>
-      </c>
-      <c r="AE24">
-        <v>53824</v>
+        <v>250001</v>
+      </c>
+      <c r="AF24">
+        <v>50300</v>
       </c>
       <c r="AG24">
-        <v>250001</v>
-      </c>
-      <c r="AI24">
-        <v>50300</v>
-      </c>
-      <c r="AJ24">
         <v>50605</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>36079</v>
       </c>
@@ -3968,55 +3614,37 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="W25">
-        <v>422</v>
-      </c>
-      <c r="X25">
-        <v>3627</v>
-      </c>
-      <c r="Y25">
-        <v>631</v>
-      </c>
-      <c r="Z25">
-        <v>221307</v>
+        <v>3797</v>
       </c>
       <c r="AA25">
-        <v>188307</v>
+        <v>99479</v>
       </c>
       <c r="AB25">
-        <v>69045</v>
+        <v>101905</v>
       </c>
       <c r="AC25">
-        <v>148632</v>
+        <v>72357</v>
       </c>
       <c r="AD25">
-        <v>99479</v>
+        <v>118447</v>
       </c>
       <c r="AE25">
-        <v>101905</v>
+        <v>80621</v>
       </c>
       <c r="AF25">
-        <v>72357</v>
+        <v>91527</v>
       </c>
       <c r="AG25">
-        <v>118447</v>
+        <v>92640</v>
       </c>
       <c r="AH25">
-        <v>80621</v>
-      </c>
-      <c r="AI25">
-        <v>91527</v>
+        <v>111680</v>
       </c>
       <c r="AJ25">
-        <v>92640</v>
-      </c>
-      <c r="AK25">
-        <v>111680</v>
-      </c>
-      <c r="AM25">
         <v>68784</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>36081</v>
       </c>
@@ -4084,58 +3712,49 @@
         <v>27.61</v>
       </c>
       <c r="W26">
-        <v>72328</v>
+        <v>93007</v>
       </c>
       <c r="X26">
-        <v>163037</v>
+        <v>50270</v>
       </c>
       <c r="Y26">
-        <v>47149</v>
+        <v>83571</v>
       </c>
       <c r="Z26">
-        <v>3523</v>
+        <v>88945</v>
       </c>
       <c r="AA26">
-        <v>38</v>
+        <v>64509</v>
       </c>
       <c r="AB26">
-        <v>17</v>
+        <v>68131</v>
       </c>
       <c r="AC26">
-        <v>113</v>
+        <v>65295</v>
       </c>
       <c r="AD26">
-        <v>64509</v>
+        <v>61242</v>
       </c>
       <c r="AE26">
-        <v>68131</v>
+        <v>58413</v>
       </c>
       <c r="AF26">
-        <v>65295</v>
+        <v>59777</v>
       </c>
       <c r="AG26">
-        <v>61242</v>
+        <v>60158</v>
       </c>
       <c r="AH26">
-        <v>58413</v>
+        <v>60773</v>
       </c>
       <c r="AI26">
-        <v>59777</v>
+        <v>58986</v>
       </c>
       <c r="AJ26">
-        <v>60158</v>
-      </c>
-      <c r="AK26">
-        <v>60773</v>
-      </c>
-      <c r="AL26">
-        <v>58986</v>
-      </c>
-      <c r="AM26">
         <v>56588</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>36083</v>
       </c>
@@ -4197,58 +3816,40 @@
         <v>2.23</v>
       </c>
       <c r="W27">
-        <v>4406</v>
-      </c>
-      <c r="X27">
-        <v>11648</v>
-      </c>
-      <c r="Y27">
-        <v>1904</v>
-      </c>
-      <c r="Z27">
-        <v>7438</v>
+        <v>11815</v>
       </c>
       <c r="AA27">
-        <v>375</v>
+        <v>64050</v>
       </c>
       <c r="AB27">
-        <v>171</v>
+        <v>67298</v>
       </c>
       <c r="AC27">
-        <v>625</v>
+        <v>24355</v>
       </c>
       <c r="AD27">
-        <v>64050</v>
+        <v>70392</v>
       </c>
       <c r="AE27">
-        <v>67298</v>
+        <v>50496</v>
       </c>
       <c r="AF27">
-        <v>24355</v>
+        <v>58198</v>
       </c>
       <c r="AG27">
-        <v>70392</v>
+        <v>62494</v>
       </c>
       <c r="AH27">
-        <v>50496</v>
+        <v>24224</v>
       </c>
       <c r="AI27">
-        <v>58198</v>
+        <v>48183</v>
       </c>
       <c r="AJ27">
-        <v>62494</v>
-      </c>
-      <c r="AK27">
-        <v>24224</v>
-      </c>
-      <c r="AL27">
-        <v>48183</v>
-      </c>
-      <c r="AM27">
         <v>31119</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>36085</v>
       </c>
@@ -4316,58 +3917,49 @@
         <v>17.38</v>
       </c>
       <c r="W28">
-        <v>17097</v>
+        <v>29670</v>
       </c>
       <c r="X28">
-        <v>30132</v>
+        <v>12997</v>
       </c>
       <c r="Y28">
-        <v>8550</v>
+        <v>5535</v>
       </c>
       <c r="Z28">
-        <v>7070</v>
+        <v>16599</v>
       </c>
       <c r="AA28">
-        <v>49</v>
+        <v>79201</v>
       </c>
       <c r="AB28">
-        <v>10</v>
+        <v>85286</v>
       </c>
       <c r="AC28">
-        <v>129</v>
+        <v>41663</v>
       </c>
       <c r="AD28">
-        <v>79201</v>
+        <v>78811</v>
       </c>
       <c r="AE28">
-        <v>85286</v>
+        <v>65876</v>
       </c>
       <c r="AF28">
-        <v>41663</v>
+        <v>79501</v>
       </c>
       <c r="AG28">
-        <v>78811</v>
+        <v>87163</v>
       </c>
       <c r="AH28">
-        <v>65876</v>
+        <v>45084</v>
       </c>
       <c r="AI28">
-        <v>79501</v>
+        <v>69043</v>
       </c>
       <c r="AJ28">
-        <v>87163</v>
-      </c>
-      <c r="AK28">
-        <v>45084</v>
-      </c>
-      <c r="AL28">
-        <v>69043</v>
-      </c>
-      <c r="AM28">
         <v>66982</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>36087</v>
       </c>
@@ -4435,58 +4027,43 @@
         <v>15.72</v>
       </c>
       <c r="W29">
-        <v>20803</v>
-      </c>
-      <c r="X29">
-        <v>20220</v>
-      </c>
-      <c r="Y29">
-        <v>3108</v>
+        <v>35987</v>
       </c>
       <c r="Z29">
-        <v>53188</v>
+        <v>9020</v>
       </c>
       <c r="AA29">
-        <v>38637</v>
+        <v>88726</v>
       </c>
       <c r="AB29">
-        <v>4526</v>
+        <v>90600</v>
       </c>
       <c r="AC29">
-        <v>20325</v>
+        <v>79973</v>
       </c>
       <c r="AD29">
-        <v>88726</v>
+        <v>140163</v>
       </c>
       <c r="AE29">
-        <v>90600</v>
+        <v>60036</v>
       </c>
       <c r="AF29">
-        <v>79973</v>
+        <v>94675</v>
       </c>
       <c r="AG29">
-        <v>140163</v>
+        <v>97551</v>
       </c>
       <c r="AH29">
-        <v>60036</v>
+        <v>71661</v>
       </c>
       <c r="AI29">
-        <v>94675</v>
+        <v>134278</v>
       </c>
       <c r="AJ29">
-        <v>97551</v>
-      </c>
-      <c r="AK29">
-        <v>71661</v>
-      </c>
-      <c r="AL29">
-        <v>134278</v>
-      </c>
-      <c r="AM29">
         <v>84859</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>36089</v>
       </c>
@@ -4554,46 +4131,28 @@
         <v>1.94</v>
       </c>
       <c r="W30">
-        <v>7835</v>
-      </c>
-      <c r="X30">
-        <v>9794</v>
-      </c>
-      <c r="Y30">
-        <v>1309</v>
-      </c>
-      <c r="Z30">
-        <v>7388</v>
+        <v>17895</v>
       </c>
       <c r="AA30">
-        <v>246</v>
+        <v>50325</v>
       </c>
       <c r="AB30">
-        <v>78</v>
-      </c>
-      <c r="AC30">
-        <v>2487</v>
+        <v>50262</v>
       </c>
       <c r="AD30">
-        <v>50325</v>
-      </c>
-      <c r="AE30">
-        <v>50262</v>
+        <v>85208</v>
+      </c>
+      <c r="AF30">
+        <v>45252</v>
       </c>
       <c r="AG30">
-        <v>85208</v>
-      </c>
-      <c r="AI30">
-        <v>45252</v>
+        <v>45682</v>
       </c>
       <c r="AJ30">
-        <v>45682</v>
-      </c>
-      <c r="AM30">
         <v>20570</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>36091</v>
       </c>
@@ -4661,52 +4220,34 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="W31">
-        <v>3618</v>
-      </c>
-      <c r="X31">
-        <v>8233</v>
-      </c>
-      <c r="Y31">
-        <v>2596</v>
-      </c>
-      <c r="Z31">
-        <v>39038</v>
+        <v>11861</v>
       </c>
       <c r="AA31">
-        <v>13960</v>
+        <v>83726</v>
       </c>
       <c r="AB31">
-        <v>5623</v>
-      </c>
-      <c r="AC31">
-        <v>26528</v>
+        <v>83512</v>
       </c>
       <c r="AD31">
-        <v>83726</v>
+        <v>101696</v>
       </c>
       <c r="AE31">
-        <v>83512</v>
+        <v>64906</v>
+      </c>
+      <c r="AF31">
+        <v>74602</v>
       </c>
       <c r="AG31">
-        <v>101696</v>
+        <v>75871</v>
       </c>
       <c r="AH31">
-        <v>64906</v>
-      </c>
-      <c r="AI31">
-        <v>74602</v>
+        <v>61862</v>
       </c>
       <c r="AJ31">
-        <v>75871</v>
-      </c>
-      <c r="AK31">
-        <v>61862</v>
-      </c>
-      <c r="AM31">
         <v>58340</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>36093</v>
       </c>
@@ -4774,58 +4315,40 @@
         <v>5.75</v>
       </c>
       <c r="W32">
-        <v>5957</v>
-      </c>
-      <c r="X32">
-        <v>11331</v>
-      </c>
-      <c r="Y32">
-        <v>2146</v>
-      </c>
-      <c r="Z32">
-        <v>89554</v>
+        <v>10755</v>
       </c>
       <c r="AA32">
-        <v>76389</v>
+        <v>62514</v>
       </c>
       <c r="AB32">
-        <v>37121</v>
+        <v>70890</v>
       </c>
       <c r="AC32">
-        <v>116134</v>
+        <v>27937</v>
       </c>
       <c r="AD32">
-        <v>62514</v>
+        <v>60602</v>
       </c>
       <c r="AE32">
-        <v>70890</v>
+        <v>41430</v>
       </c>
       <c r="AF32">
-        <v>27937</v>
+        <v>58962</v>
       </c>
       <c r="AG32">
-        <v>60602</v>
+        <v>64209</v>
       </c>
       <c r="AH32">
-        <v>41430</v>
+        <v>29013</v>
       </c>
       <c r="AI32">
-        <v>58962</v>
+        <v>43497</v>
       </c>
       <c r="AJ32">
-        <v>64209</v>
-      </c>
-      <c r="AK32">
-        <v>29013</v>
-      </c>
-      <c r="AL32">
-        <v>43497</v>
-      </c>
-      <c r="AM32">
         <v>39898</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>36101</v>
       </c>
@@ -4881,52 +4404,34 @@
         <v>1.26</v>
       </c>
       <c r="W33">
-        <v>3309</v>
-      </c>
-      <c r="X33">
-        <v>6931</v>
-      </c>
-      <c r="Y33">
-        <v>1451</v>
-      </c>
-      <c r="Z33">
-        <v>19336</v>
+        <v>10695</v>
       </c>
       <c r="AA33">
-        <v>5829</v>
+        <v>50930</v>
       </c>
       <c r="AB33">
-        <v>301</v>
+        <v>50830</v>
       </c>
       <c r="AC33">
-        <v>1624</v>
-      </c>
-      <c r="AD33">
-        <v>50930</v>
+        <v>38537</v>
       </c>
       <c r="AE33">
-        <v>50830</v>
+        <v>132879</v>
       </c>
       <c r="AF33">
-        <v>38537</v>
+        <v>51823</v>
+      </c>
+      <c r="AG33">
+        <v>51946</v>
       </c>
       <c r="AH33">
-        <v>132879</v>
+        <v>43535</v>
       </c>
       <c r="AI33">
-        <v>51823</v>
-      </c>
-      <c r="AJ33">
-        <v>51946</v>
-      </c>
-      <c r="AK33">
-        <v>43535</v>
-      </c>
-      <c r="AL33">
         <v>180514</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>36103</v>
       </c>
@@ -4994,58 +4499,49 @@
         <v>16.59</v>
       </c>
       <c r="W34">
-        <v>25997</v>
+        <v>66759</v>
       </c>
       <c r="X34">
-        <v>58261</v>
+        <v>17613</v>
       </c>
       <c r="Y34">
-        <v>14967</v>
+        <v>5052</v>
       </c>
       <c r="Z34">
-        <v>25222</v>
+        <v>32322</v>
       </c>
       <c r="AA34">
-        <v>4828</v>
+        <v>94750</v>
       </c>
       <c r="AB34">
-        <v>3152</v>
+        <v>97071</v>
       </c>
       <c r="AC34">
-        <v>4164</v>
+        <v>69872</v>
       </c>
       <c r="AD34">
-        <v>94750</v>
+        <v>100437</v>
       </c>
       <c r="AE34">
-        <v>97071</v>
+        <v>82633</v>
       </c>
       <c r="AF34">
-        <v>69872</v>
+        <v>91885</v>
       </c>
       <c r="AG34">
-        <v>100437</v>
+        <v>96118</v>
       </c>
       <c r="AH34">
-        <v>82633</v>
+        <v>79948</v>
       </c>
       <c r="AI34">
-        <v>91885</v>
+        <v>93917</v>
       </c>
       <c r="AJ34">
-        <v>96118</v>
-      </c>
-      <c r="AK34">
-        <v>79948</v>
-      </c>
-      <c r="AL34">
-        <v>93917</v>
-      </c>
-      <c r="AM34">
         <v>74738</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>36105</v>
       </c>
@@ -5101,58 +4597,40 @@
         <v>1.55</v>
       </c>
       <c r="W35">
-        <v>3214</v>
-      </c>
-      <c r="X35">
-        <v>4533</v>
-      </c>
-      <c r="Y35">
-        <v>1485</v>
-      </c>
-      <c r="Z35">
-        <v>37207</v>
+        <v>6289</v>
       </c>
       <c r="AA35">
-        <v>18501</v>
+        <v>55309</v>
       </c>
       <c r="AB35">
-        <v>4529</v>
+        <v>58326</v>
       </c>
       <c r="AC35">
-        <v>6490</v>
+        <v>42178</v>
       </c>
       <c r="AD35">
-        <v>55309</v>
+        <v>125813</v>
       </c>
       <c r="AE35">
-        <v>58326</v>
+        <v>39712</v>
       </c>
       <c r="AF35">
-        <v>42178</v>
+        <v>49100</v>
       </c>
       <c r="AG35">
-        <v>125813</v>
+        <v>52197</v>
       </c>
       <c r="AH35">
-        <v>39712</v>
+        <v>23806</v>
       </c>
       <c r="AI35">
-        <v>49100</v>
+        <v>102890</v>
       </c>
       <c r="AJ35">
-        <v>52197</v>
-      </c>
-      <c r="AK35">
-        <v>23806</v>
-      </c>
-      <c r="AL35">
-        <v>102890</v>
-      </c>
-      <c r="AM35">
         <v>51084</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>36109</v>
       </c>
@@ -5208,52 +4686,34 @@
         <v>9.75</v>
       </c>
       <c r="W36">
-        <v>2299</v>
-      </c>
-      <c r="X36">
-        <v>15509</v>
-      </c>
-      <c r="Y36">
-        <v>964</v>
-      </c>
-      <c r="Z36">
-        <v>8655</v>
+        <v>11200</v>
       </c>
       <c r="AA36">
-        <v>556</v>
+        <v>56672</v>
       </c>
       <c r="AB36">
-        <v>307</v>
-      </c>
-      <c r="AC36">
-        <v>1248</v>
+        <v>60469</v>
       </c>
       <c r="AD36">
-        <v>56672</v>
-      </c>
-      <c r="AE36">
-        <v>60469</v>
+        <v>31088</v>
+      </c>
+      <c r="AF36">
+        <v>58661</v>
       </c>
       <c r="AG36">
-        <v>31088</v>
+        <v>61941</v>
+      </c>
+      <c r="AH36">
+        <v>9792</v>
       </c>
       <c r="AI36">
-        <v>58661</v>
+        <v>50864</v>
       </c>
       <c r="AJ36">
-        <v>61941</v>
-      </c>
-      <c r="AK36">
-        <v>9792</v>
-      </c>
-      <c r="AL36">
-        <v>50864</v>
-      </c>
-      <c r="AM36">
         <v>41078</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36111</v>
       </c>
@@ -5321,58 +4781,43 @@
         <v>8.76</v>
       </c>
       <c r="W37">
-        <v>5967</v>
-      </c>
-      <c r="X37">
-        <v>15506</v>
-      </c>
-      <c r="Y37">
-        <v>2732</v>
+        <v>17360</v>
       </c>
       <c r="Z37">
-        <v>29500</v>
+        <v>3658</v>
       </c>
       <c r="AA37">
-        <v>6975</v>
+        <v>63621</v>
       </c>
       <c r="AB37">
-        <v>704</v>
+        <v>64743</v>
       </c>
       <c r="AC37">
-        <v>11225</v>
+        <v>71154</v>
       </c>
       <c r="AD37">
-        <v>63621</v>
+        <v>80000</v>
       </c>
       <c r="AE37">
-        <v>64743</v>
+        <v>71423</v>
       </c>
       <c r="AF37">
-        <v>71154</v>
+        <v>57802</v>
       </c>
       <c r="AG37">
-        <v>80000</v>
+        <v>58810</v>
       </c>
       <c r="AH37">
-        <v>71423</v>
+        <v>35150</v>
       </c>
       <c r="AI37">
-        <v>57802</v>
+        <v>91925</v>
       </c>
       <c r="AJ37">
-        <v>58810</v>
-      </c>
-      <c r="AK37">
-        <v>35150</v>
-      </c>
-      <c r="AL37">
-        <v>91925</v>
-      </c>
-      <c r="AM37">
         <v>48718</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36113</v>
       </c>
@@ -5415,38 +4860,23 @@
       <c r="U38">
         <v>503</v>
       </c>
-      <c r="V38">
-        <v>5015</v>
-      </c>
       <c r="W38">
-        <v>370</v>
-      </c>
-      <c r="X38">
-        <v>103</v>
-      </c>
-      <c r="Y38">
-        <v>875</v>
-      </c>
-      <c r="Z38">
-        <v>60541</v>
+        <v>4208</v>
       </c>
       <c r="AA38">
-        <v>60493</v>
-      </c>
-      <c r="AD38">
         <v>47301</v>
       </c>
-      <c r="AI38">
+      <c r="AF38">
         <v>59395</v>
       </c>
-      <c r="AJ38">
+      <c r="AG38">
         <v>60146</v>
       </c>
-      <c r="AK38">
+      <c r="AH38">
         <v>43962</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>36117</v>
       </c>
@@ -5501,41 +4931,23 @@
       <c r="U39">
         <v>2075</v>
       </c>
-      <c r="V39">
-        <v>19642</v>
-      </c>
       <c r="W39">
-        <v>267</v>
-      </c>
-      <c r="X39">
-        <v>20</v>
-      </c>
-      <c r="Y39">
-        <v>1181</v>
-      </c>
-      <c r="Z39">
-        <v>51326</v>
-      </c>
-      <c r="AA39">
-        <v>52189</v>
-      </c>
-      <c r="AC39">
-        <v>250001</v>
-      </c>
-      <c r="AI39">
+        <v>9051</v>
+      </c>
+      <c r="AF39">
         <v>56745</v>
       </c>
+      <c r="AG39">
+        <v>57290</v>
+      </c>
+      <c r="AH39">
+        <v>28924</v>
+      </c>
       <c r="AJ39">
-        <v>57290</v>
-      </c>
-      <c r="AK39">
-        <v>28924</v>
-      </c>
-      <c r="AM39">
         <v>49390</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>36119</v>
       </c>
@@ -5600,368 +5012,37 @@
         <v>12004</v>
       </c>
       <c r="V40">
-        <v>8006</v>
+        <v>21.92</v>
       </c>
       <c r="W40">
-        <v>375</v>
+        <v>34072</v>
       </c>
       <c r="X40">
-        <v>82</v>
+        <v>18444</v>
       </c>
       <c r="Y40">
-        <v>467</v>
+        <v>4601</v>
       </c>
       <c r="Z40">
-        <v>90578</v>
+        <v>33726</v>
       </c>
       <c r="AA40">
-        <v>109615</v>
-      </c>
-      <c r="AB40">
-        <v>55844</v>
-      </c>
-      <c r="AC40">
-        <v>140465</v>
-      </c>
-      <c r="AD40">
         <v>58264</v>
       </c>
+      <c r="AF40">
+        <v>87225</v>
+      </c>
+      <c r="AG40">
+        <v>98605</v>
+      </c>
+      <c r="AH40">
+        <v>62740</v>
+      </c>
       <c r="AI40">
-        <v>87225</v>
+        <v>137805</v>
       </c>
       <c r="AJ40">
-        <v>98605</v>
-      </c>
-      <c r="AK40">
-        <v>62740</v>
-      </c>
-      <c r="AL40">
-        <v>137805</v>
-      </c>
-      <c r="AM40">
         <v>57855</v>
-      </c>
-    </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="V41">
-        <v>3615</v>
-      </c>
-      <c r="W41">
-        <v>243</v>
-      </c>
-      <c r="X41">
-        <v>114</v>
-      </c>
-      <c r="Y41">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="V42">
-        <v>104908</v>
-      </c>
-      <c r="W42">
-        <v>52801</v>
-      </c>
-      <c r="X42">
-        <v>95006</v>
-      </c>
-      <c r="Y42">
-        <v>108126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="V43">
-        <v>13297</v>
-      </c>
-      <c r="W43">
-        <v>3547</v>
-      </c>
-      <c r="X43">
-        <v>519</v>
-      </c>
-      <c r="Y43">
-        <v>2059</v>
-      </c>
-    </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="V44">
-        <v>33934</v>
-      </c>
-      <c r="W44">
-        <v>12619</v>
-      </c>
-      <c r="X44">
-        <v>5051</v>
-      </c>
-      <c r="Y44">
-        <v>20297</v>
-      </c>
-    </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="V45">
-        <v>34554</v>
-      </c>
-      <c r="W45">
-        <v>3664</v>
-      </c>
-      <c r="X45">
-        <v>704</v>
-      </c>
-      <c r="Y45">
-        <v>10063</v>
-      </c>
-    </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="V46">
-        <v>18030</v>
-      </c>
-      <c r="W46">
-        <v>251</v>
-      </c>
-      <c r="X46">
-        <v>130</v>
-      </c>
-      <c r="Y46">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="V47">
-        <v>13145</v>
-      </c>
-      <c r="W47">
-        <v>634</v>
-      </c>
-      <c r="X47">
-        <v>254</v>
-      </c>
-      <c r="Y47">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="V48">
-        <v>11158</v>
-      </c>
-      <c r="W48">
-        <v>4679</v>
-      </c>
-      <c r="X48">
-        <v>812</v>
-      </c>
-      <c r="Y48">
-        <v>3009</v>
-      </c>
-    </row>
-    <row r="49" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V49">
-        <v>3998</v>
-      </c>
-      <c r="W49">
-        <v>69</v>
-      </c>
-      <c r="X49">
-        <v>22</v>
-      </c>
-      <c r="Y49">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V50">
-        <v>2578</v>
-      </c>
-      <c r="W50">
-        <v>41</v>
-      </c>
-      <c r="X50">
-        <v>41</v>
-      </c>
-      <c r="Y50">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V51">
-        <v>3409</v>
-      </c>
-      <c r="W51">
-        <v>29</v>
-      </c>
-      <c r="X51">
-        <v>80</v>
-      </c>
-      <c r="Y51">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="52" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V52">
-        <v>12938</v>
-      </c>
-      <c r="W52">
-        <v>331</v>
-      </c>
-      <c r="X52">
-        <v>42</v>
-      </c>
-      <c r="Y52">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="53" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V53">
-        <v>71301</v>
-      </c>
-      <c r="W53">
-        <v>15146</v>
-      </c>
-      <c r="X53">
-        <v>4314</v>
-      </c>
-      <c r="Y53">
-        <v>34215</v>
-      </c>
-    </row>
-    <row r="54" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V54">
-        <v>8310</v>
-      </c>
-      <c r="W54">
-        <v>1452</v>
-      </c>
-      <c r="X54">
-        <v>100</v>
-      </c>
-      <c r="Y54">
-        <v>2885</v>
-      </c>
-    </row>
-    <row r="55" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V55">
-        <v>5150</v>
-      </c>
-      <c r="W55">
-        <v>85</v>
-      </c>
-      <c r="X55">
-        <v>48</v>
-      </c>
-      <c r="Y55">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="56" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V56">
-        <v>11584</v>
-      </c>
-      <c r="W56">
-        <v>963</v>
-      </c>
-      <c r="X56">
-        <v>4364</v>
-      </c>
-      <c r="Y56">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="57" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V57">
-        <v>16956</v>
-      </c>
-      <c r="W57">
-        <v>2717</v>
-      </c>
-      <c r="X57">
-        <v>531</v>
-      </c>
-      <c r="Y57">
-        <v>4097</v>
-      </c>
-    </row>
-    <row r="58" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V58">
-        <v>5648</v>
-      </c>
-      <c r="W58">
-        <v>138</v>
-      </c>
-      <c r="X58">
-        <v>68</v>
-      </c>
-      <c r="Y58">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="59" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V59">
-        <v>7056</v>
-      </c>
-      <c r="W59">
-        <v>281</v>
-      </c>
-      <c r="X59">
-        <v>15</v>
-      </c>
-      <c r="Y59">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="60" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V60">
-        <v>9001</v>
-      </c>
-      <c r="W60">
-        <v>810</v>
-      </c>
-      <c r="X60">
-        <v>107</v>
-      </c>
-      <c r="Y60">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="61" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V61">
-        <v>41938</v>
-      </c>
-      <c r="W61">
-        <v>22137</v>
-      </c>
-      <c r="X61">
-        <v>3995</v>
-      </c>
-      <c r="Y61">
-        <v>39254</v>
-      </c>
-    </row>
-    <row r="62" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V62">
-        <v>4022</v>
-      </c>
-      <c r="W62">
-        <v>112</v>
-      </c>
-      <c r="X62">
-        <v>37</v>
-      </c>
-      <c r="Y62">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="63" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V63">
-        <v>3000</v>
-      </c>
-      <c r="W63">
-        <v>39</v>
-      </c>
-      <c r="X63">
-        <v>0</v>
-      </c>
-      <c r="Y63">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
